--- a/resources/experiment 1/predictions/multiple/LinearRegression/average time/Retinopatías.xlsx
+++ b/resources/experiment 1/predictions/multiple/LinearRegression/average time/Retinopatías.xlsx
@@ -562,7 +562,7 @@
         <v>32.10535012218341</v>
       </c>
       <c r="J3" t="n">
-        <v>30.70434163980672</v>
+        <v>30.70434163980673</v>
       </c>
       <c r="K3" t="n">
         <v>18.67003781044017</v>
@@ -626,7 +626,7 @@
         <v>22.6885909417925</v>
       </c>
       <c r="F5" t="n">
-        <v>33.97907982064374</v>
+        <v>33.97907982064375</v>
       </c>
       <c r="G5" t="n">
         <v>25.4579871884107</v>
@@ -635,7 +635,7 @@
         <v>17.24042144715613</v>
       </c>
       <c r="I5" t="n">
-        <v>34.18374139715317</v>
+        <v>34.18374139715316</v>
       </c>
       <c r="J5" t="n">
         <v>33.04507577255941</v>
@@ -734,10 +734,10 @@
         <v>18.45772330539699</v>
       </c>
       <c r="D8" t="n">
-        <v>8.351243436137434</v>
+        <v>8.351243436137436</v>
       </c>
       <c r="E8" t="n">
-        <v>6.715698028271396</v>
+        <v>6.715698028271397</v>
       </c>
       <c r="F8" t="n">
         <v>10.7715202227143</v>
@@ -793,7 +793,7 @@
         <v>25.53034463282942</v>
       </c>
       <c r="K9" t="n">
-        <v>16.49731901171079</v>
+        <v>16.4973190117108</v>
       </c>
       <c r="L9" t="n">
         <v>34.71877544640645</v>
@@ -816,16 +816,16 @@
         <v>7.874426629299665</v>
       </c>
       <c r="F10" t="n">
-        <v>12.39861141566194</v>
+        <v>12.39861141566193</v>
       </c>
       <c r="G10" t="n">
         <v>-1.710223218954807</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.2259491395260955</v>
+        <v>-0.2259491395260973</v>
       </c>
       <c r="I10" t="n">
-        <v>-2.571228280830674</v>
+        <v>-2.571228280830677</v>
       </c>
       <c r="J10" t="n">
         <v>1.914596534056653</v>
@@ -872,7 +872,7 @@
         <v>11.79539118913283</v>
       </c>
       <c r="L11" t="n">
-        <v>19.81645379615841</v>
+        <v>19.81645379615842</v>
       </c>
     </row>
     <row r="12">
@@ -889,7 +889,7 @@
         <v>25.31253735893833</v>
       </c>
       <c r="E12" t="n">
-        <v>20.26482504559886</v>
+        <v>20.26482504559885</v>
       </c>
       <c r="F12" t="n">
         <v>31.05898898267733</v>
@@ -904,7 +904,7 @@
         <v>23.90860416499842</v>
       </c>
       <c r="J12" t="n">
-        <v>25.30878335879183</v>
+        <v>25.30878335879184</v>
       </c>
       <c r="K12" t="n">
         <v>17.27100048515221</v>
@@ -921,7 +921,7 @@
         <v>27.96501744710441</v>
       </c>
       <c r="C13" t="n">
-        <v>33.07500454444966</v>
+        <v>33.07500454444967</v>
       </c>
       <c r="D13" t="n">
         <v>15.46592806017408</v>
@@ -933,16 +933,16 @@
         <v>19.53204001800093</v>
       </c>
       <c r="G13" t="n">
-        <v>3.980286734195964</v>
+        <v>3.980286734195962</v>
       </c>
       <c r="H13" t="n">
-        <v>3.607695088755979</v>
+        <v>3.607695088755978</v>
       </c>
       <c r="I13" t="n">
-        <v>5.008757024953111</v>
+        <v>5.008757024953109</v>
       </c>
       <c r="J13" t="n">
-        <v>9.207766399749064</v>
+        <v>9.207766399749062</v>
       </c>
       <c r="K13" t="n">
         <v>8.727417891360583</v>
@@ -971,7 +971,7 @@
         <v>20.46442718570263</v>
       </c>
       <c r="G14" t="n">
-        <v>6.452117727066916</v>
+        <v>6.452117727066915</v>
       </c>
       <c r="H14" t="n">
         <v>5.120099087849816</v>
@@ -1044,7 +1044,7 @@
         <v>20.11428528418</v>
       </c>
       <c r="F16" t="n">
-        <v>30.4872142922927</v>
+        <v>30.48721429229271</v>
       </c>
       <c r="G16" t="n">
         <v>19.64077600634052</v>
@@ -1056,7 +1056,7 @@
         <v>26.29537576566877</v>
       </c>
       <c r="J16" t="n">
-        <v>26.70071169920575</v>
+        <v>26.70071169920576</v>
       </c>
       <c r="K16" t="n">
         <v>17.39257351075366</v>
@@ -1146,7 +1146,7 @@
         <v>35.50378563344769</v>
       </c>
       <c r="B19" t="n">
-        <v>27.95904388274135</v>
+        <v>27.95904388274136</v>
       </c>
       <c r="C19" t="n">
         <v>42.8435011863675</v>
@@ -1211,7 +1211,7 @@
         <v>28.94263344516489</v>
       </c>
       <c r="K20" t="n">
-        <v>18.90495500995793</v>
+        <v>18.90495500995794</v>
       </c>
       <c r="L20" t="n">
         <v>39.08577995269805</v>
@@ -1234,7 +1234,7 @@
         <v>22.76403062538203</v>
       </c>
       <c r="F21" t="n">
-        <v>34.52012217731305</v>
+        <v>34.52012217731306</v>
       </c>
       <c r="G21" t="n">
         <v>23.72194647935138</v>
@@ -1246,13 +1246,13 @@
         <v>31.79973427879376</v>
       </c>
       <c r="J21" t="n">
-        <v>31.6037412387487</v>
+        <v>31.60374123874871</v>
       </c>
       <c r="K21" t="n">
         <v>20.19991003348373</v>
       </c>
       <c r="L21" t="n">
-        <v>43.01061769190624</v>
+        <v>43.01061769190623</v>
       </c>
     </row>
     <row r="22">
@@ -1263,28 +1263,28 @@
         <v>24.79548201378785</v>
       </c>
       <c r="C22" t="n">
-        <v>24.06698455499208</v>
+        <v>24.06698455499209</v>
       </c>
       <c r="D22" t="n">
         <v>10.93070900420637</v>
       </c>
       <c r="E22" t="n">
-        <v>8.882955074669283</v>
+        <v>8.882955074669285</v>
       </c>
       <c r="F22" t="n">
         <v>13.96423794117892</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.8917775876331895</v>
+        <v>-0.8917775876331913</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3674834703398719</v>
+        <v>0.3674834703398702</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.534797125656748</v>
+        <v>-1.534797125656752</v>
       </c>
       <c r="J22" t="n">
-        <v>3.134369793829773</v>
+        <v>3.134369793829771</v>
       </c>
       <c r="K22" t="n">
         <v>5.024826869587655</v>
@@ -1310,13 +1310,13 @@
         <v>25.1884757330961</v>
       </c>
       <c r="F23" t="n">
-        <v>38.46083306118742</v>
+        <v>38.46083306118743</v>
       </c>
       <c r="G23" t="n">
         <v>27.72046160485227</v>
       </c>
       <c r="H23" t="n">
-        <v>18.83700354078931</v>
+        <v>18.83700354078932</v>
       </c>
       <c r="I23" t="n">
         <v>37.3123862388516</v>
@@ -1360,7 +1360,7 @@
         <v>26.29261128335782</v>
       </c>
       <c r="J24" t="n">
-        <v>26.75011789260253</v>
+        <v>26.75011789260254</v>
       </c>
       <c r="K24" t="n">
         <v>17.5316372601944</v>
@@ -1398,7 +1398,7 @@
         <v>24.21974897300997</v>
       </c>
       <c r="J25" t="n">
-        <v>24.31057137305629</v>
+        <v>24.3105713730563</v>
       </c>
       <c r="K25" t="n">
         <v>15.46300076322719</v>
@@ -1453,7 +1453,7 @@
         <v>31.90025442953841</v>
       </c>
       <c r="C27" t="n">
-        <v>38.51791725664944</v>
+        <v>38.51791725664945</v>
       </c>
       <c r="D27" t="n">
         <v>17.73088110118528</v>
@@ -1468,7 +1468,7 @@
         <v>5.506970866825895</v>
       </c>
       <c r="H27" t="n">
-        <v>4.68957988793665</v>
+        <v>4.689579887936648</v>
       </c>
       <c r="I27" t="n">
         <v>7.092677264544767</v>
@@ -1497,7 +1497,7 @@
         <v>19.64484178246503</v>
       </c>
       <c r="E28" t="n">
-        <v>15.82332304714556</v>
+        <v>15.82332304714555</v>
       </c>
       <c r="F28" t="n">
         <v>23.98702504776899</v>
@@ -1523,13 +1523,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>44.60834129577307</v>
+        <v>44.60834129577308</v>
       </c>
       <c r="B29" t="n">
         <v>24.32939879899047</v>
       </c>
       <c r="C29" t="n">
-        <v>63.05779685396578</v>
+        <v>63.05779685396577</v>
       </c>
       <c r="D29" t="n">
         <v>32.83646188823646</v>
@@ -1544,10 +1544,10 @@
         <v>28.51135545367056</v>
       </c>
       <c r="H29" t="n">
-        <v>19.40419104551746</v>
+        <v>19.40419104551747</v>
       </c>
       <c r="I29" t="n">
-        <v>38.35158187633647</v>
+        <v>38.35158187633648</v>
       </c>
       <c r="J29" t="n">
         <v>37.52891926447766</v>
@@ -1614,7 +1614,7 @@
         <v>12.01518871067546</v>
       </c>
       <c r="F31" t="n">
-        <v>18.837335992755</v>
+        <v>18.83733599275499</v>
       </c>
       <c r="G31" t="n">
         <v>5.578568530738647</v>
@@ -1623,7 +1623,7 @@
         <v>4.474176267708216</v>
       </c>
       <c r="I31" t="n">
-        <v>7.406586554867271</v>
+        <v>7.406586554867273</v>
       </c>
       <c r="J31" t="n">
         <v>10.40206996657588</v>
@@ -1643,7 +1643,7 @@
         <v>21.7673693352233</v>
       </c>
       <c r="C32" t="n">
-        <v>24.85518596368489</v>
+        <v>24.8551859636849</v>
       </c>
       <c r="D32" t="n">
         <v>11.96366098963803</v>
@@ -1655,19 +1655,19 @@
         <v>14.95808977631127</v>
       </c>
       <c r="G32" t="n">
-        <v>1.635156970244415</v>
+        <v>1.635156970244413</v>
       </c>
       <c r="H32" t="n">
-        <v>1.932377679709342</v>
+        <v>1.932377679709341</v>
       </c>
       <c r="I32" t="n">
-        <v>1.888405630187529</v>
+        <v>1.888405630187528</v>
       </c>
       <c r="J32" t="n">
-        <v>5.746071394016816</v>
+        <v>5.746071394016814</v>
       </c>
       <c r="K32" t="n">
-        <v>6.180718143672709</v>
+        <v>6.18071814367271</v>
       </c>
       <c r="L32" t="n">
         <v>6.093171032075809</v>
@@ -1693,7 +1693,7 @@
         <v>20.49515951941795</v>
       </c>
       <c r="G33" t="n">
-        <v>6.479669509570242</v>
+        <v>6.479669509570241</v>
       </c>
       <c r="H33" t="n">
         <v>5.146344192987632</v>
@@ -1719,7 +1719,7 @@
         <v>28.71877186749575</v>
       </c>
       <c r="C34" t="n">
-        <v>49.04689055102753</v>
+        <v>49.04689055102754</v>
       </c>
       <c r="D34" t="n">
         <v>24.22716661899705</v>
@@ -1731,7 +1731,7 @@
         <v>30.03440481382966</v>
       </c>
       <c r="G34" t="n">
-        <v>15.3778007394036</v>
+        <v>15.37780073940361</v>
       </c>
       <c r="H34" t="n">
         <v>11.00708971481606</v>
@@ -1813,7 +1813,7 @@
         <v>8.22364240145094</v>
       </c>
       <c r="I36" t="n">
-        <v>15.28665873941881</v>
+        <v>15.2866587394188</v>
       </c>
       <c r="J36" t="n">
         <v>16.89465262011986</v>
@@ -1842,7 +1842,7 @@
         <v>23.54725883726368</v>
       </c>
       <c r="F37" t="n">
-        <v>35.99355170168405</v>
+        <v>35.99355170168406</v>
       </c>
       <c r="G37" t="n">
         <v>24.45773676316302</v>
@@ -1880,13 +1880,13 @@
         <v>14.81547381329635</v>
       </c>
       <c r="F38" t="n">
-        <v>23.44201856815998</v>
+        <v>23.44201856815997</v>
       </c>
       <c r="G38" t="n">
-        <v>7.951250077193521</v>
+        <v>7.951250077193522</v>
       </c>
       <c r="H38" t="n">
-        <v>6.175738781892671</v>
+        <v>6.175738781892669</v>
       </c>
       <c r="I38" t="n">
         <v>10.5241734673219</v>
@@ -1930,7 +1930,7 @@
         <v>24.95056428479425</v>
       </c>
       <c r="J39" t="n">
-        <v>26.42974423177139</v>
+        <v>26.4297442317714</v>
       </c>
       <c r="K39" t="n">
         <v>18.02719123475435</v>
@@ -1974,7 +1974,7 @@
         <v>18.13127353651652</v>
       </c>
       <c r="L40" t="n">
-        <v>40.22661788090541</v>
+        <v>40.2266178809054</v>
       </c>
     </row>
     <row r="41">
@@ -2055,13 +2055,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>35.51809424984641</v>
+        <v>35.51809424984642</v>
       </c>
       <c r="B43" t="n">
         <v>23.13345542125397</v>
       </c>
       <c r="C43" t="n">
-        <v>47.00273657869025</v>
+        <v>47.00273657869024</v>
       </c>
       <c r="D43" t="n">
         <v>23.91796706588462</v>
@@ -2099,7 +2099,7 @@
         <v>17.38396983108109</v>
       </c>
       <c r="C44" t="n">
-        <v>29.09759562470529</v>
+        <v>29.0975956247053</v>
       </c>
       <c r="D44" t="n">
         <v>15.0572039719877</v>
@@ -2111,7 +2111,7 @@
         <v>18.38849063723166</v>
       </c>
       <c r="G44" t="n">
-        <v>7.397264587307937</v>
+        <v>7.397264587307936</v>
       </c>
       <c r="H44" t="n">
         <v>5.550618287762983</v>
@@ -2152,7 +2152,7 @@
         <v>12.03242055020438</v>
       </c>
       <c r="H45" t="n">
-        <v>8.848762895580627</v>
+        <v>8.848762895580625</v>
       </c>
       <c r="I45" t="n">
         <v>16.02853198044689</v>
@@ -2187,16 +2187,16 @@
         <v>17.30244180095334</v>
       </c>
       <c r="G46" t="n">
-        <v>4.787674681920356</v>
+        <v>4.787674681920355</v>
       </c>
       <c r="H46" t="n">
-        <v>3.906988762980065</v>
+        <v>3.906988762980064</v>
       </c>
       <c r="I46" t="n">
-        <v>6.367390917382394</v>
+        <v>6.367390917382396</v>
       </c>
       <c r="J46" t="n">
-        <v>9.231702900199537</v>
+        <v>9.231702900199533</v>
       </c>
       <c r="K46" t="n">
         <v>7.397481420156234</v>
@@ -2222,7 +2222,7 @@
         <v>9.59108320872161</v>
       </c>
       <c r="F47" t="n">
-        <v>15.40693513183461</v>
+        <v>15.4069351318346</v>
       </c>
       <c r="G47" t="n">
         <v>-0.1835390863248758</v>
@@ -2234,13 +2234,13 @@
         <v>-0.4873080412390181</v>
       </c>
       <c r="J47" t="n">
-        <v>4.156518280015781</v>
+        <v>4.15651828001578</v>
       </c>
       <c r="K47" t="n">
         <v>5.502890120308325</v>
       </c>
       <c r="L47" t="n">
-        <v>3.674936072242243</v>
+        <v>3.67493607224224</v>
       </c>
     </row>
     <row r="48">
@@ -2292,13 +2292,13 @@
         <v>45.91313255244108</v>
       </c>
       <c r="D49" t="n">
-        <v>24.95623202526158</v>
+        <v>24.95623202526157</v>
       </c>
       <c r="E49" t="n">
         <v>20.03884560059047</v>
       </c>
       <c r="F49" t="n">
-        <v>29.94617193562339</v>
+        <v>29.9461719356234</v>
       </c>
       <c r="G49" t="n">
         <v>21.37681671539983</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>30.20286593346277</v>
+        <v>30.20286593346278</v>
       </c>
       <c r="B51" t="n">
         <v>11.93410257522826</v>
@@ -2418,16 +2418,16 @@
         <v>4.106987963115367</v>
       </c>
       <c r="H52" t="n">
-        <v>3.444781678803179</v>
+        <v>3.444781678803178</v>
       </c>
       <c r="I52" t="n">
-        <v>5.317137350653713</v>
+        <v>5.317137350653711</v>
       </c>
       <c r="J52" t="n">
-        <v>8.258960607410305</v>
+        <v>8.258960607410303</v>
       </c>
       <c r="K52" t="n">
-        <v>7.058481918876298</v>
+        <v>7.058481918876297</v>
       </c>
       <c r="L52" t="n">
         <v>10.13261164515821</v>
@@ -2441,7 +2441,7 @@
         <v>27.36348504191808</v>
       </c>
       <c r="C53" t="n">
-        <v>52.50109880335513</v>
+        <v>52.50109880335512</v>
       </c>
       <c r="D53" t="n">
         <v>26.28775761591506</v>
@@ -2488,7 +2488,7 @@
         <v>24.40524752121445</v>
       </c>
       <c r="F54" t="n">
-        <v>36.98740353681641</v>
+        <v>36.98740353681642</v>
       </c>
       <c r="G54" t="n">
         <v>26.98467132104063</v>
@@ -2526,7 +2526,7 @@
         <v>22.68893054755271</v>
       </c>
       <c r="F55" t="n">
-        <v>34.48938984359772</v>
+        <v>34.48938984359773</v>
       </c>
       <c r="G55" t="n">
         <v>23.69439469684806</v>
@@ -2544,7 +2544,7 @@
         <v>20.06084628404299</v>
       </c>
       <c r="L55" t="n">
-        <v>43.04881864986431</v>
+        <v>43.0488186498643</v>
       </c>
     </row>
     <row r="56">
@@ -2555,7 +2555,7 @@
         <v>22.8218899582078</v>
       </c>
       <c r="C56" t="n">
-        <v>31.11402484081003</v>
+        <v>31.11402484081004</v>
       </c>
       <c r="D56" t="n">
         <v>15.31398477059051</v>
@@ -2567,16 +2567,16 @@
         <v>18.99099766133162</v>
       </c>
       <c r="G56" t="n">
-        <v>5.716327443255277</v>
+        <v>5.716327443255276</v>
       </c>
       <c r="H56" t="n">
         <v>4.605401793397298</v>
       </c>
       <c r="I56" t="n">
-        <v>7.392764143312514</v>
+        <v>7.392764143312512</v>
       </c>
       <c r="J56" t="n">
-        <v>10.64910093355977</v>
+        <v>10.64910093355976</v>
       </c>
       <c r="K56" t="n">
         <v>8.988054666402768</v>
@@ -2599,7 +2599,7 @@
         <v>11.91124223512841</v>
       </c>
       <c r="E57" t="n">
-        <v>9.665843680790724</v>
+        <v>9.665843680790726</v>
       </c>
       <c r="F57" t="n">
         <v>14.92735744259595</v>
@@ -2608,13 +2608,13 @@
         <v>1.607605187741088</v>
       </c>
       <c r="H57" t="n">
-        <v>1.906132574571526</v>
+        <v>1.906132574571525</v>
       </c>
       <c r="I57" t="n">
-        <v>1.891170112498481</v>
+        <v>1.891170112498479</v>
       </c>
       <c r="J57" t="n">
-        <v>5.696665200620039</v>
+        <v>5.696665200620037</v>
       </c>
       <c r="K57" t="n">
         <v>6.041654394231976</v>
@@ -2631,7 +2631,7 @@
         <v>23.27487817600597</v>
       </c>
       <c r="C58" t="n">
-        <v>56.79895797684064</v>
+        <v>56.79895797684063</v>
       </c>
       <c r="D58" t="n">
         <v>29.48613810728398</v>
@@ -2652,7 +2652,7 @@
         <v>32.84722336321149</v>
       </c>
       <c r="J58" t="n">
-        <v>32.62588972493471</v>
+        <v>32.62588972493472</v>
       </c>
       <c r="K58" t="n">
         <v>20.67797328420439</v>
@@ -2684,7 +2684,7 @@
         <v>8.896396937434542</v>
       </c>
       <c r="H59" t="n">
-        <v>6.606257981805838</v>
+        <v>6.606257981805837</v>
       </c>
       <c r="I59" t="n">
         <v>11.86898494819643</v>
@@ -2716,7 +2716,7 @@
         <v>25.41377596658407</v>
       </c>
       <c r="F60" t="n">
-        <v>38.55303006233339</v>
+        <v>38.5530300623334</v>
       </c>
       <c r="G60" t="n">
         <v>27.80311695236225</v>
@@ -2815,13 +2815,13 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>36.46616857034545</v>
+        <v>36.46616857034544</v>
       </c>
       <c r="B63" t="n">
         <v>30.98715656130591</v>
       </c>
       <c r="C63" t="n">
-        <v>42.05529977767469</v>
+        <v>42.0552997776747</v>
       </c>
       <c r="D63" t="n">
         <v>19.94872836163216</v>
@@ -2859,7 +2859,7 @@
         <v>22.50917662688853</v>
       </c>
       <c r="C64" t="n">
-        <v>60.36406525409844</v>
+        <v>60.36406525409843</v>
       </c>
       <c r="D64" t="n">
         <v>31.75640412224048</v>
@@ -2897,31 +2897,31 @@
         <v>19.35756188666114</v>
       </c>
       <c r="C65" t="n">
-        <v>22.05055533888734</v>
+        <v>22.05055533888735</v>
       </c>
       <c r="D65" t="n">
         <v>10.67392820560356</v>
       </c>
       <c r="E65" t="n">
-        <v>8.657315235421104</v>
+        <v>8.657315235421105</v>
       </c>
       <c r="F65" t="n">
         <v>13.36173091707896</v>
       </c>
       <c r="G65" t="n">
-        <v>0.789159556419472</v>
+        <v>0.7891595564194702</v>
       </c>
       <c r="H65" t="n">
-        <v>1.312699964705558</v>
+        <v>1.312699964705557</v>
       </c>
       <c r="I65" t="n">
-        <v>0.8547389573245567</v>
+        <v>0.854738957324555</v>
       </c>
       <c r="J65" t="n">
-        <v>4.476891940846921</v>
+        <v>4.476891940846917</v>
       </c>
       <c r="K65" t="n">
-        <v>5.007336145748374</v>
+        <v>5.007336145748375</v>
       </c>
       <c r="L65" t="n">
         <v>4.739372084533461</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>36.26591038948939</v>
+        <v>36.2659103894894</v>
       </c>
       <c r="B68" t="n">
         <v>19.63443383180209</v>
@@ -3064,13 +3064,13 @@
         <v>-0.1008837388148986</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9346709750680233</v>
+        <v>0.9346709750680224</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.4956014881718716</v>
+        <v>-0.4956014881718751</v>
       </c>
       <c r="J69" t="n">
-        <v>4.304736860206114</v>
+        <v>4.304736860206113</v>
       </c>
       <c r="K69" t="n">
         <v>5.920081368630524</v>
@@ -3114,7 +3114,7 @@
         <v>17.99220978707579</v>
       </c>
       <c r="L70" t="n">
-        <v>40.26481883886348</v>
+        <v>40.26481883886347</v>
       </c>
     </row>
     <row r="71">
@@ -3140,7 +3140,7 @@
         <v>13.95026605318975</v>
       </c>
       <c r="H71" t="n">
-        <v>9.736046400544776</v>
+        <v>9.736046400544778</v>
       </c>
       <c r="I71" t="n">
         <v>18.71539045988499</v>
@@ -3152,7 +3152,7 @@
         <v>12.65566424049713</v>
       </c>
       <c r="L71" t="n">
-        <v>26.46513415886473</v>
+        <v>26.46513415886472</v>
       </c>
     </row>
     <row r="72">
@@ -3163,7 +3163,7 @@
         <v>19.49301107705008</v>
       </c>
       <c r="C72" t="n">
-        <v>41.61527337895557</v>
+        <v>41.61527337895558</v>
       </c>
       <c r="D72" t="n">
         <v>21.75785153389266</v>
